--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="825">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2304,27 +2274,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2518,6 +2476,45 @@
   </si>
   <si>
     <t>1.14.1</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6816,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6853,7 +6850,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6864,7 +6861,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6875,7 +6872,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6886,7 +6883,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6957,7 +6954,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6968,10 +6965,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6979,10 +6976,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7047,7 +7044,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7073,7 +7070,7 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="B24" s="30">
         <v>10</v>
@@ -7085,7 +7082,7 @@
     </row>
     <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B25" s="30">
         <v>10</v>
@@ -7097,7 +7094,7 @@
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="B26" s="30">
         <v>1</v>
@@ -7110,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
@@ -7158,7 +7155,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>30</v>
@@ -7171,7 +7168,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7185,7 +7182,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>447</v>
@@ -7199,7 +7196,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7211,7 +7208,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7226,7 +7223,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7260,8 +7257,8 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7359,7 +7356,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7424,13 +7421,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7443,17 +7440,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7462,17 +7459,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7481,17 +7478,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7500,17 +7497,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7519,17 +7516,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7538,17 +7535,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7557,17 +7554,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7576,17 +7573,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7595,17 +7592,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7614,13 +7611,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7633,17 +7630,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7652,17 +7649,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7671,17 +7668,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7690,17 +7687,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7709,17 +7706,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7728,17 +7725,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7747,17 +7744,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7766,17 +7763,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7785,13 +7782,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>812</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>812</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>812</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7843,7 +7840,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7872,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7880,10 +7877,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="30" t="s">
@@ -7898,10 +7895,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="56" t="s">
@@ -7927,7 +7924,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7935,10 +7932,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
@@ -7953,10 +7950,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="30" t="s">
@@ -8073,7 +8070,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8104,7 +8101,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8339,7 +8336,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8349,7 +8346,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8372,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8380,7 +8377,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8390,7 +8387,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8401,7 +8398,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8411,7 +8408,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8422,7 +8419,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8432,7 +8429,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8443,7 +8440,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8461,7 +8458,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8471,7 +8468,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8482,7 +8479,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8492,7 +8489,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8503,7 +8500,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8513,7 +8510,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8524,13 +8521,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8562,17 +8559,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8595,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8621,7 +8618,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8631,7 +8628,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8642,7 +8639,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8652,7 +8649,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8663,7 +8660,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8673,7 +8670,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8684,7 +8681,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8702,7 +8699,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8712,7 +8709,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8723,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8733,7 +8730,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8744,7 +8741,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8754,7 +8751,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8765,13 +8762,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8782,7 +8779,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8803,17 +8800,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8836,7 +8833,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8862,7 +8859,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8872,7 +8869,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8883,7 +8880,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8893,7 +8890,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8904,7 +8901,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8914,7 +8911,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8925,7 +8922,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8943,7 +8940,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8953,7 +8950,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8964,7 +8961,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -8974,7 +8971,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -8985,7 +8982,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -8995,7 +8992,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9044,7 +9041,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9054,7 +9051,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9077,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9085,17 +9082,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9118,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9144,7 +9141,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9154,7 +9151,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9165,7 +9162,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9175,7 +9172,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9186,7 +9183,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9196,7 +9193,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9207,7 +9204,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9225,7 +9222,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9235,7 +9232,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9246,7 +9243,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9256,7 +9253,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9267,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9277,7 +9274,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9291,10 +9288,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9305,7 +9302,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9315,7 +9312,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9338,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9346,7 +9343,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9356,7 +9353,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9379,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9387,7 +9384,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9410,13 +9407,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9442,10 +9439,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9475,7 +9472,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9485,10 +9482,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9517,7 +9514,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9527,10 +9524,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9559,7 +9556,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9568,13 +9565,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9600,10 +9597,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9633,7 +9630,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9643,10 +9640,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9675,7 +9672,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9685,10 +9682,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9717,7 +9714,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9725,13 +9722,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9742,17 +9739,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9775,7 +9772,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9783,17 +9780,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9816,7 +9813,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9824,13 +9821,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10265,9 +10262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10306,7 +10303,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10344,7 +10341,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10401,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -10442,7 +10439,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10463,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="30"/>
@@ -10474,7 +10471,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10495,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="30"/>
@@ -10503,12 +10500,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10532,12 +10529,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10561,12 +10558,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10589,12 +10586,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10617,12 +10614,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10645,12 +10642,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10673,12 +10670,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10702,12 +10699,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10731,12 +10728,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10760,12 +10757,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10789,12 +10786,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10818,12 +10815,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10847,12 +10844,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10876,12 +10873,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10905,15 +10902,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10934,15 +10931,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10963,15 +10960,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -10992,15 +10989,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11021,15 +11018,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>813</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11050,15 +11047,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>814</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11079,15 +11076,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11107,15 +11104,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11135,27 +11132,27 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>817</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="30" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
@@ -11163,27 +11160,27 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="30" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -11191,27 +11188,27 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G32" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="30" t="b">
         <v>1</v>
       </c>
       <c r="I32" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -11219,27 +11216,27 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G33" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="30" t="b">
         <v>1</v>
       </c>
       <c r="I33" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -11247,19 +11244,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>754</v>
+        <v>821</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G34" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="30" t="b">
         <v>1</v>
@@ -11270,19 +11267,19 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>756</v>
+        <v>822</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G35" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="30" t="b">
         <v>1</v>
@@ -11293,19 +11290,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>758</v>
+        <v>823</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G36" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="30" t="b">
         <v>1</v>
@@ -11316,17 +11313,17 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>760</v>
+        <v>824</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="30" t="b">
         <v>1</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="826">
   <si>
     <t>type</t>
   </si>
@@ -2515,6 +2515,9 @@
   </si>
   <si>
     <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -7256,9 +7259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7782,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>812</v>
@@ -10262,9 +10265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2475,9 +2475,6 @@
     <t>oat</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced</t>
   </si>
   <si>
@@ -2518,6 +2515,9 @@
   </si>
   <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6816,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6875,7 +6875,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7259,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -7785,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -11026,7 +11026,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11055,7 +11055,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11084,7 +11084,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>655</v>
@@ -11112,7 +11112,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>655</v>
@@ -11140,7 +11140,7 @@
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>655</v>
@@ -11168,7 +11168,7 @@
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>655</v>
@@ -11196,7 +11196,7 @@
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>655</v>
@@ -11224,7 +11224,7 @@
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>655</v>
@@ -11252,7 +11252,7 @@
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11275,7 +11275,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11298,7 +11298,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2518,6 +2515,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6816,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6853,7 +6853,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6864,7 +6864,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6875,7 +6875,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6886,7 +6886,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6957,7 +6957,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6968,7 +6968,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -6979,7 +6979,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7047,7 +7047,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7073,7 +7073,7 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B24" s="30">
         <v>10</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B25" s="30">
         <v>10</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B26" s="30">
         <v>1</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
@@ -7171,7 +7171,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7199,7 +7199,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7226,7 +7226,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7259,9 +7259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7359,7 +7359,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7424,13 +7424,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>775</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>776</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7443,17 +7443,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>777</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>778</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7462,17 +7462,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7481,17 +7481,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7500,14 +7500,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>785</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>786</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7519,17 +7519,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7538,17 +7538,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7557,17 +7557,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7576,17 +7576,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7595,17 +7595,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>799</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>800</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7614,13 +7614,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7633,17 +7633,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>777</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>778</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7652,17 +7652,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7671,17 +7671,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7690,14 +7690,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>785</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>786</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7709,17 +7709,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7728,17 +7728,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7747,17 +7747,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7766,17 +7766,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7785,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7843,7 +7843,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7880,10 +7880,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="30" t="s">
@@ -7898,10 +7898,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="56" t="s">
@@ -7926,8 +7926,8 @@
       <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>652</v>
+      <c r="R28" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7935,10 +7935,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
@@ -7953,10 +7953,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="30" t="s">
@@ -8073,7 +8073,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8103,8 +8103,8 @@
         <v>1</v>
       </c>
       <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>652</v>
+      <c r="R36" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8339,7 +8339,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8349,7 +8349,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8380,7 +8380,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8390,7 +8390,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8411,7 +8411,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8432,7 +8432,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8461,7 +8461,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8471,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8482,7 +8482,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8492,7 +8492,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8513,7 +8513,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8524,13 +8524,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>748</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8562,17 +8562,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>749</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8631,7 +8631,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8652,7 +8652,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8673,7 +8673,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8684,7 +8684,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8702,7 +8702,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8712,7 +8712,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8723,7 +8723,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8733,7 +8733,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8744,7 +8744,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8754,7 +8754,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8765,13 +8765,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8782,7 +8782,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8803,17 +8803,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>756</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8836,7 +8836,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8862,7 +8862,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8872,7 +8872,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8893,7 +8893,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8914,7 +8914,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8943,7 +8943,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8953,7 +8953,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8964,7 +8964,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -8974,7 +8974,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -8995,7 +8995,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9044,7 +9044,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9054,7 +9054,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9085,17 +9085,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>759</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9144,7 +9144,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9154,7 +9154,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9175,7 +9175,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9196,7 +9196,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9225,7 +9225,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9235,7 +9235,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9246,7 +9246,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9256,7 +9256,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9277,7 +9277,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9291,10 +9291,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9305,7 +9305,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9315,7 +9315,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9346,7 +9346,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9356,7 +9356,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9379,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9410,13 +9410,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9442,10 +9442,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9475,7 +9475,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9485,10 +9485,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9517,7 +9517,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9527,10 +9527,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9559,7 +9559,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9568,13 +9568,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9600,10 +9600,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9633,7 +9633,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9643,10 +9643,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9675,7 +9675,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9685,10 +9685,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9717,7 +9717,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9725,13 +9725,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9742,17 +9742,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9774,8 +9774,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9783,17 +9783,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9816,7 +9816,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9824,13 +9824,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10306,7 +10306,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10344,7 +10344,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10442,7 +10442,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10474,7 +10474,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10503,12 +10503,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10532,12 +10532,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10561,12 +10561,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10589,12 +10589,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10617,12 +10617,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10645,12 +10645,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10673,12 +10673,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10702,12 +10702,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10731,12 +10731,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10760,12 +10760,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10789,12 +10789,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10818,12 +10818,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10847,12 +10847,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10876,12 +10876,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10905,15 +10905,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10934,15 +10934,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10963,15 +10963,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -10992,15 +10992,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11026,7 +11026,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11055,7 +11055,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11079,15 +11079,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11107,15 +11107,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11163,15 +11163,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11191,15 +11191,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11219,15 +11219,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11247,12 +11247,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11270,12 +11270,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11293,12 +11293,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11316,11 +11316,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2514,10 +2505,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4547,7 +4538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4594,9 +4585,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6814,16 +6802,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6832,7 +6820,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6843,7 +6831,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6852,8 +6840,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>766</v>
+      <c r="B3" s="25" t="s">
+        <v>763</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6863,8 +6851,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>772</v>
+      <c r="B4" s="24" t="s">
+        <v>769</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6872,57 +6860,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>824</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>773</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6934,20 +6922,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6956,289 +6944,264 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>804</v>
+      <c r="B12" s="24" t="s">
+        <v>801</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>800</v>
+      <c r="B13" s="24" t="s">
+        <v>797</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="B22" s="29">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="B23" s="29">
+        <v>10</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="29"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="B24" s="30">
-        <v>10</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="B25" s="30">
-        <v>10</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="B26" s="30">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="30"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="31" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="D44" s="2"/>
+      <c r="B41" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7259,34 +7222,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7297,33 +7260,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7333,12 +7296,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7358,8 +7321,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>767</v>
+      <c r="F3" s="61" t="s">
+        <v>764</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7386,13 +7349,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7419,646 +7382,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>775</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="63"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>794</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>792</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>797</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="63"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="64"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8066,65 +8029,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="F36" s="64"/>
+      <c r="G36" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="40" t="s">
-        <v>825</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="F37" s="64"/>
+      <c r="G37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8132,26 +8095,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="F38" s="64"/>
+      <c r="G38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8159,26 +8122,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8186,26 +8149,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="64"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8213,26 +8176,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="64"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8240,26 +8203,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="F42" s="64"/>
+      <c r="G42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8267,26 +8230,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="64"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8294,1109 +8257,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="64"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="63"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="63"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="64"/>
-      <c r="G51" s="30" t="s">
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>748</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="64"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="64"/>
+      <c r="G63" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="30" t="s">
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="64"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E67" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="C65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="64"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="64"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="64"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="65"/>
-      <c r="G70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="64"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="30" t="s">
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="64"/>
+      <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="64"/>
+      <c r="G74" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="30" t="s">
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="65"/>
-      <c r="G77" s="30" t="s">
+      <c r="F77" s="64"/>
+      <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="D79" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-25</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="65"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="64"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="65"/>
-      <c r="G81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="65"/>
-      <c r="G82" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="63"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="65"/>
-      <c r="G83" s="30" t="s">
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="63"/>
+      <c r="G86" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="64"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="63"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="64"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-6</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>825</v>
+      <c r="R90" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="63"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9406,845 +9369,845 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4.5</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M94" s="42">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
+        <v>4</v>
+      </c>
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>4</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>825</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>825</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="F101" s="64"/>
-      <c r="G101" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="E101" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="F101" s="63"/>
+      <c r="G101" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="D102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>50</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>825</v>
+      <c r="R102" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="64"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="63"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10272,26 +10235,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10305,11 +10268,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>768</v>
+      <c r="B2" s="62" t="s">
+        <v>765</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10321,40 +10284,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>769</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10366,1145 +10329,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="30" t="b">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="30" t="b">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="30" t="b">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="b">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>704</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="H30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="I30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>813</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="30" t="b">
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="30" t="b">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="30" t="b">
+      <c r="H36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18877,10 +18840,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18891,10 +18854,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18903,10 +18866,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18914,10 +18877,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18934,10 +18897,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18954,10 +18917,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18974,10 +18937,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18991,10 +18954,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -19003,10 +18966,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -19014,10 +18977,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19026,10 +18989,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19037,10 +19000,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19051,10 +19014,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19063,10 +19026,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19074,10 +19037,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19086,10 +19049,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19097,10 +19060,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19117,10 +19080,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19137,10 +19100,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19154,10 +19117,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19181,10 +19144,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19193,10 +19156,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19210,10 +19173,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19248,10 +19211,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19262,10 +19225,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19476,10 +19439,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19490,10 +19453,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19510,10 +19473,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19530,10 +19493,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19546,10 +19509,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19559,10 +19522,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19573,10 +19536,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19613,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19627,10 +19590,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19647,10 +19610,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19661,10 +19624,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19716,130 +19679,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19850,10 +19813,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19864,66 +19827,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -19931,8 +19894,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -19946,232 +19909,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -2508,7 +2508,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6804,8 +6804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -2463,45 +2463,6 @@
     <t>oat</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
@@ -2509,6 +2470,45 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
   </si>
 </sst>
 </file>
@@ -6804,8 +6804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6863,7 +6863,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -7042,7 +7042,7 @@
         <v>803</v>
       </c>
       <c r="B22" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
@@ -7054,7 +7054,7 @@
         <v>804</v>
       </c>
       <c r="B23" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
@@ -7222,9 +7222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7748,13 +7748,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7890,7 +7890,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8799,7 +8799,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9040,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9081,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9438,7 +9438,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9480,7 +9480,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9522,7 +9522,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9596,7 +9596,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9680,7 +9680,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9738,7 +9738,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9779,7 +9779,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9792,9 +9792,7 @@
       <c r="C103" s="36" t="s">
         <v>737</v>
       </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
+      <c r="D103" s="36"/>
       <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
@@ -10230,7 +10228,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10989,7 +10987,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11018,7 +11016,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11047,7 +11045,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11075,7 +11073,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11103,7 +11101,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11131,7 +11129,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11159,7 +11157,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11187,7 +11185,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11215,7 +11213,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11238,7 +11236,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11261,7 +11259,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11283,7 +11281,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="772">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2250,12 +2109,6 @@
     <t>Roof thermal mass multiplier</t>
   </si>
   <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2341,12 +2194,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>name</t>
@@ -4538,7 +4385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4600,7 +4447,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6805,7 +6651,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6841,7 +6687,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6852,7 +6698,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6863,7 +6709,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6874,7 +6720,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6887,11 +6733,11 @@
       <c r="B7" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6906,11 +6752,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6926,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6945,7 +6791,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6956,10 +6802,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>797</v>
+        <v>746</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6967,10 +6813,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7013,7 +6859,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7039,82 +6885,82 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="B22" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="B23" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="B24" s="29">
         <v>1</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="29"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
@@ -7124,7 +6970,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
@@ -7137,7 +6983,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>798</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7151,7 +6997,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>447</v>
@@ -7162,10 +7008,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7177,7 +7023,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
@@ -7186,13 +7032,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>800</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7223,8 +7069,8 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7260,7 +7106,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7272,21 +7118,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7301,7 +7147,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7321,8 +7167,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>764</v>
+      <c r="F3" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7382,41 +7228,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="F5" s="63"/>
+        <v>723</v>
+      </c>
+      <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7425,17 +7271,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7444,17 +7290,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F7" s="63"/>
+        <v>728</v>
+      </c>
+      <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7463,17 +7309,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="F8" s="63"/>
+        <v>731</v>
+      </c>
+      <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7482,17 +7328,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F9" s="63"/>
+        <v>733</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7501,17 +7347,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="63"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="62"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>747</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7520,17 +7366,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="63"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="62"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>748</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7539,17 +7385,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F12" s="63"/>
+        <v>736</v>
+      </c>
+      <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>788</v>
+      <c r="I12" s="46" t="s">
+        <v>737</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7558,55 +7404,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>795</v>
+        <v>744</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="F13" s="63"/>
+        <v>745</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>788</v>
+      <c r="I13" s="46" t="s">
+        <v>737</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>789</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="63"/>
+        <v>723</v>
+      </c>
+      <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7615,17 +7461,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7634,17 +7480,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F17" s="63"/>
+        <v>728</v>
+      </c>
+      <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>792</v>
+        <v>741</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7653,17 +7499,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="F18" s="63"/>
+        <v>731</v>
+      </c>
+      <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7672,17 +7518,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F19" s="63"/>
+        <v>733</v>
+      </c>
+      <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>793</v>
+        <v>742</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7691,17 +7537,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="63"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="62"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>747</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7710,17 +7556,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="63"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="62"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>748</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7729,53 +7575,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F22" s="63"/>
+        <v>736</v>
+      </c>
+      <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>794</v>
+      <c r="I22" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7789,7 +7635,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7801,41 +7647,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>808</v>
+      <c r="R26" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7843,12 +7689,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="63"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7856,41 +7702,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>808</v>
+      <c r="R28" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7898,12 +7744,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="63"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7916,12 +7762,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="64"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="63"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7939,7 +7785,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7957,7 +7803,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7975,7 +7821,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7984,20 +7830,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8013,7 +7859,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8029,45 +7875,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="63"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>808</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8076,13 +7922,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8095,7 +7941,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8109,7 +7955,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8122,7 +7968,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8136,7 +7982,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8149,7 +7995,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8163,7 +8009,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8176,7 +8022,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8190,7 +8036,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8203,7 +8049,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8217,7 +8063,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
+      <c r="F42" s="63"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8230,7 +8076,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8244,7 +8090,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8257,22 +8103,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8286,7 +8132,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8297,45 +8143,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>808</v>
+      <c r="R46" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8343,17 +8189,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="64"/>
+      <c r="F47" s="63"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8364,17 +8210,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8385,17 +8231,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="63"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8406,12 +8252,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="63"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8424,17 +8270,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="63"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8445,17 +8291,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="63"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8466,36 +8312,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="64"/>
+      <c r="F53" s="63"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>743</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>744</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>744</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8509,56 +8355,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="64"/>
+      <c r="F55" s="63"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>808</v>
+      <c r="R56" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8584,7 +8430,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8594,7 +8440,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8605,7 +8451,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8615,7 +8461,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8626,7 +8472,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8636,7 +8482,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8647,12 +8493,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="64"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8665,17 +8511,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="64"/>
+      <c r="F62" s="63"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8686,17 +8532,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="64"/>
+      <c r="F63" s="63"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8707,36 +8553,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="64"/>
+      <c r="F64" s="63"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>750</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>749</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>749</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8745,61 +8591,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>751</v>
+        <v>702</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="64"/>
+      <c r="F66" s="63"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>808</v>
+      <c r="R67" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8812,7 +8658,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
+      <c r="F68" s="63"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8825,17 +8671,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="64"/>
+      <c r="F69" s="63"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8846,17 +8692,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="64"/>
+      <c r="F70" s="63"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8867,17 +8713,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="64"/>
+      <c r="F71" s="63"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8888,12 +8734,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="64"/>
+      <c r="F72" s="63"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8906,17 +8752,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="64"/>
+      <c r="F73" s="63"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -8927,17 +8773,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="64"/>
+      <c r="F74" s="63"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -8948,36 +8794,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="64"/>
+      <c r="F75" s="63"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8991,97 +8837,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="64"/>
+      <c r="F77" s="63"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-25</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>808</v>
+      <c r="R79" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9094,7 +8940,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
+      <c r="F80" s="63"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9107,17 +8953,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="64"/>
+      <c r="F81" s="63"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9128,17 +8974,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="64"/>
+      <c r="F82" s="63"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9149,17 +8995,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="64"/>
+      <c r="F83" s="63"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9170,12 +9016,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="63"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9188,17 +9034,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="63"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9209,17 +9055,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="63"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9230,119 +9076,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-6</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>808</v>
+      <c r="R90" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9350,12 +9196,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9369,489 +9215,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4.5</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>808</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>4.5</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>808</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>808</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>757</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>4</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>808</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>808</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>761</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>50</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>808</v>
+      <c r="R102" s="38" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
+      <c r="F104" s="62"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10224,11 +10062,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10248,7 +10086,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10266,11 +10104,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>765</v>
+      <c r="B2" s="61" t="s">
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10304,11 +10142,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>766</v>
+      <c r="B3" s="61" t="s">
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10336,18 +10174,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10370,16 +10208,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>759</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10400,25 +10237,21 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>767</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="29" t="b">
         <v>1</v>
@@ -10426,31 +10259,28 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>768</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>761</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="29" t="b">
         <v>1</v>
@@ -10458,23 +10288,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10486,63 +10316,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10550,27 +10378,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10578,27 +10406,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10606,21 +10434,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10628,27 +10454,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10656,28 +10477,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10685,28 +10500,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>693</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10714,619 +10521,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>742</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11403,69 +10692,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20084,7 +19310,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2319,43 +2319,43 @@
     <t>1.21.14</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6650,7 +6650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7597,10 +7597,10 @@
         <v>756</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -10064,9 +10064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10213,7 +10213,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10242,7 +10242,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10271,7 +10271,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10299,7 +10299,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10327,7 +10327,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10355,7 +10355,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10383,7 +10383,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10411,7 +10411,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10439,7 +10439,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10462,7 +10462,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10485,7 +10485,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -6888,7 +6888,7 @@
         <v>752</v>
       </c>
       <c r="B22" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
@@ -10064,9 +10064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="775">
   <si>
     <t>type</t>
   </si>
@@ -2356,6 +2356,15 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -4385,7 +4394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4506,6 +4515,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6648,10 +6658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6928,122 +6938,156 @@
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
+      <c r="A26" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>536</v>
+      </c>
       <c r="C26" s="29"/>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B27" s="30">
+        <v>2</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>569</v>
+      </c>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B28" s="28">
+        <v>1E+20</v>
+      </c>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="29"/>
+      <c r="A29" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>774</v>
+      </c>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B37" s="24" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="40" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C43" s="30" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="D42" s="2"/>
+    <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="25"/>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7125,14 +7169,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -10064,7 +10108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -6660,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6964,7 +6964,7 @@
         <v>772</v>
       </c>
       <c r="B28" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="781">
   <si>
     <t>type</t>
   </si>
@@ -2364,7 +2364,25 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
+    <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>oat (One at a Time)</t>
+  </si>
+  <si>
+    <t>integer specifying the number of levels that are increased/decreased for computing the elementary effects</t>
+  </si>
+  <si>
+    <t>integer giving the number of repetitions of the design</t>
   </si>
 </sst>
 </file>
@@ -4394,7 +4412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4515,7 +4533,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6661,7 +6678,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6900,8 +6917,8 @@
       <c r="B22" s="29">
         <v>2</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>568</v>
+      <c r="C22" t="s">
+        <v>780</v>
       </c>
       <c r="D22" s="33"/>
     </row>
@@ -6924,7 +6941,9 @@
       <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" t="s">
+        <v>779</v>
+      </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6934,7 +6953,9 @@
       <c r="B25" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="29" t="s">
+        <v>778</v>
+      </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6944,7 +6965,9 @@
       <c r="B26" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>775</v>
+      </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6955,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>569</v>
+        <v>774</v>
       </c>
       <c r="D27" s="33"/>
     </row>
@@ -6966,7 +6989,9 @@
       <c r="B28" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>777</v>
+      </c>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6976,8 +7001,8 @@
       <c r="B29" s="29">
         <v>0</v>
       </c>
-      <c r="C29" s="64" t="s">
-        <v>774</v>
+      <c r="C29" s="29" t="s">
+        <v>776</v>
       </c>
       <c r="D29" s="33"/>
     </row>
@@ -6986,12 +7011,12 @@
       <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7003,22 +7028,22 @@
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
@@ -7030,6 +7055,11 @@
         <v>747</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>29</v>
@@ -7037,8 +7067,8 @@
       <c r="B39" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
+      <c r="C39" s="30" t="s">
+        <v>629</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>637</v>
@@ -7051,23 +7081,26 @@
       <c r="A40" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>629</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="30" t="s">
         <v>748</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>639</v>
+      <c r="C42" s="30" t="s">
+        <v>749</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7081,12 +7114,11 @@
       <c r="B43" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>749</v>
-      </c>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
     </row>
   </sheetData>
@@ -7169,14 +7201,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4412,7 +4412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4476,9 +4476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6675,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6868,7 +6865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6889,11 +6886,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6910,19 +6907,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>752</v>
       </c>
       <c r="B22" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>780</v>
       </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>753</v>
       </c>
@@ -6932,9 +6929,9 @@
       <c r="C23" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>754</v>
       </c>
@@ -6944,21 +6941,21 @@
       <c r="C24" t="s">
         <v>779</v>
       </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>755</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>535</v>
       </c>
@@ -6968,9 +6965,9 @@
       <c r="C26" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>537</v>
       </c>
@@ -6980,9 +6977,9 @@
       <c r="C27" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>772</v>
       </c>
@@ -6992,134 +6989,193 @@
       <c r="C28" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>773</v>
       </c>
       <c r="B29" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="29"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C35" s="11" t="s">
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="26" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>637</v>
       </c>
+      <c r="E34" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C41" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>749</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="C43" s="30"/>
-    </row>
-    <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7182,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7194,21 +7250,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7223,7 +7279,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7243,7 +7299,7 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -7304,24 +7360,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="b">
+    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
@@ -7333,7 +7389,7 @@
       <c r="E5" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
@@ -7352,7 +7408,7 @@
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
         <v>671</v>
       </c>
@@ -7371,7 +7427,7 @@
       <c r="E7" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
@@ -7390,7 +7446,7 @@
       <c r="E8" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
         <v>671</v>
       </c>
@@ -7409,7 +7465,7 @@
       <c r="E9" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
@@ -7428,11 +7484,11 @@
       <c r="E10" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J10" s="30"/>
@@ -7447,11 +7503,11 @@
       <c r="E11" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J11" s="30"/>
@@ -7466,11 +7522,11 @@
       <c r="E12" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>737</v>
       </c>
       <c r="J12" s="30"/>
@@ -7485,33 +7541,33 @@
       <c r="E13" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>737</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="b">
+    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -7523,7 +7579,7 @@
       <c r="E15" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
@@ -7542,7 +7598,7 @@
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
         <v>671</v>
       </c>
@@ -7561,7 +7617,7 @@
       <c r="E17" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
@@ -7580,7 +7636,7 @@
       <c r="E18" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
         <v>671</v>
       </c>
@@ -7599,7 +7655,7 @@
       <c r="E19" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
@@ -7618,11 +7674,11 @@
       <c r="E20" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J20" s="30"/>
@@ -7637,11 +7693,11 @@
       <c r="E21" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J21" s="30"/>
@@ -7656,48 +7712,48 @@
       <c r="E22" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="45" t="s">
         <v>743</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7711,7 +7767,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7723,40 +7779,40 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39">
         <v>100</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>15</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="39">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -7770,7 +7826,7 @@
       <c r="E27" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7778,40 +7834,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
+    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
         <v>0.1</v>
       </c>
-      <c r="M28" s="56">
+      <c r="M28" s="55">
         <v>0.05</v>
       </c>
-      <c r="N28" s="56">
+      <c r="N28" s="55">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="55">
         <v>0.01</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="R28" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -7825,7 +7881,7 @@
       <c r="E29" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7843,7 +7899,7 @@
       <c r="E30" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7861,7 +7917,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7879,7 +7935,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7897,7 +7953,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7906,20 +7962,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
+    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7935,7 +7991,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -7951,44 +8007,44 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
+      <c r="I36" s="49">
+        <v>0</v>
+      </c>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51">
         <v>-40</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <v>40</v>
       </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
+      <c r="M36" s="51">
+        <v>0</v>
+      </c>
+      <c r="N36" s="51">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="51">
         <v>1</v>
       </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
+      <c r="Q36" s="52"/>
+      <c r="R36" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -7998,13 +8054,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8017,7 +8073,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8031,7 +8087,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8044,7 +8100,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8058,7 +8114,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8071,7 +8127,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="37"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8085,7 +8141,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8098,7 +8154,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8112,7 +8168,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8125,7 +8181,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8139,7 +8195,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8152,7 +8208,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8166,7 +8222,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8179,22 +8235,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8208,7 +8264,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8219,44 +8275,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39">
         <v>-80</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="39">
         <v>80</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="39">
         <v>1</v>
       </c>
-      <c r="R46" s="38" t="s">
+      <c r="R46" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -8270,7 +8326,7 @@
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8291,7 +8347,7 @@
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
@@ -8312,7 +8368,7 @@
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
@@ -8333,7 +8389,7 @@
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8351,7 +8407,7 @@
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
@@ -8372,7 +8428,7 @@
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
@@ -8393,7 +8449,7 @@
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
@@ -8404,20 +8460,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
+    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>694</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8431,55 +8487,55 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="47"/>
+      <c r="G56" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="37">
         <v>0.8</v>
       </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
+      <c r="J56" s="40"/>
+      <c r="K56" s="39">
         <v>0.78</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="39">
         <v>0.98</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="39">
         <v>0.8</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="39">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="39">
         <v>1</v>
       </c>
-      <c r="R56" s="38" t="s">
+      <c r="R56" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -8574,7 +8630,7 @@
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8592,7 +8648,7 @@
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
@@ -8613,7 +8669,7 @@
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
@@ -8634,7 +8690,7 @@
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
@@ -8645,20 +8701,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
+    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>701</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8672,55 +8728,55 @@
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="I66" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
+    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J67" s="40"/>
+      <c r="K67" s="39">
+        <v>2</v>
+      </c>
+      <c r="L67" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="39">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R67" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -8734,7 +8790,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8752,7 +8808,7 @@
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
@@ -8773,7 +8829,7 @@
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
@@ -8794,7 +8850,7 @@
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
@@ -8815,7 +8871,7 @@
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8833,7 +8889,7 @@
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
@@ -8854,7 +8910,7 @@
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
@@ -8875,7 +8931,7 @@
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
@@ -8886,20 +8942,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
+    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8913,96 +8969,96 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="49" t="s">
+      <c r="I77" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I78" s="38">
-        <v>0</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="40">
+      <c r="I78" s="37">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="39">
         <v>-20</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="39">
         <v>14</v>
       </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
+      <c r="M78" s="39">
+        <v>0</v>
+      </c>
+      <c r="N78" s="39">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="39">
         <v>1</v>
       </c>
-      <c r="R78" s="38" t="s">
+      <c r="R78" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
+    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
+      <c r="F79" s="47"/>
+      <c r="G79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
+      <c r="I79" s="37">
+        <v>0</v>
+      </c>
+      <c r="J79" s="40"/>
+      <c r="K79" s="39">
         <v>-25</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="39">
         <v>30</v>
       </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
+      <c r="M79" s="39">
+        <v>0</v>
+      </c>
+      <c r="N79" s="39">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="40">
+      <c r="O79" s="39">
         <v>1</v>
       </c>
-      <c r="R79" s="38" t="s">
+      <c r="R79" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -9016,7 +9072,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9034,7 +9090,7 @@
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
@@ -9055,7 +9111,7 @@
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
@@ -9076,7 +9132,7 @@
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
@@ -9097,7 +9153,7 @@
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9115,7 +9171,7 @@
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
@@ -9136,7 +9192,7 @@
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
@@ -9157,7 +9213,7 @@
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
@@ -9168,102 +9224,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
+    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="38" t="s">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="47"/>
+      <c r="G89" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I89" s="38">
-        <v>0</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="40">
+      <c r="I89" s="37">
+        <v>0</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="39">
         <v>-6</v>
       </c>
-      <c r="L89" s="40">
-        <v>2</v>
-      </c>
-      <c r="M89" s="40">
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
+      <c r="L89" s="39">
+        <v>2</v>
+      </c>
+      <c r="M89" s="39">
+        <v>0</v>
+      </c>
+      <c r="N89" s="39">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="39">
         <v>1</v>
       </c>
-      <c r="R89" s="38" t="s">
+      <c r="R89" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="47"/>
+      <c r="G90" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
+      <c r="I90" s="37">
+        <v>0</v>
+      </c>
+      <c r="J90" s="40"/>
+      <c r="K90" s="39">
         <v>-6</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="39">
         <v>3.9</v>
       </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
+      <c r="M90" s="39">
+        <v>0</v>
+      </c>
+      <c r="N90" s="39">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="40">
+      <c r="O90" s="39">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="R90" s="37" t="s">
         <v>757</v>
       </c>
     </row>
@@ -9277,7 +9333,7 @@
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9291,481 +9347,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
+      <c r="A92" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="48" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48" t="s">
+      <c r="F93" s="47"/>
+      <c r="G93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>1</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48">
+      <c r="J93" s="47"/>
+      <c r="K93" s="47">
         <v>0.5</v>
       </c>
-      <c r="L93" s="48">
+      <c r="L93" s="47">
         <v>4.5</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
+      <c r="N93" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="48">
+      <c r="O93" s="47">
         <v>0.1</v>
       </c>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38" t="s">
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48" t="s">
+      <c r="F94" s="47"/>
+      <c r="G94" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>1</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48">
+      <c r="J94" s="47"/>
+      <c r="K94" s="47">
         <v>0.1</v>
       </c>
-      <c r="L94" s="48">
+      <c r="L94" s="47">
         <v>4.5</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="47">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="47">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38" t="s">
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="F95" s="47"/>
+      <c r="G95" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J95" s="47"/>
+      <c r="K95" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L95" s="47">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N95" s="39">
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O95" s="39">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="37" t="s">
         <v>757</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
+      <c r="A96" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="48" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47" t="s">
         <v>686</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48" t="s">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>1</v>
       </c>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48">
+      <c r="J97" s="47"/>
+      <c r="K97" s="47">
         <v>0.5</v>
       </c>
-      <c r="L97" s="48">
+      <c r="L97" s="47">
         <v>4</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="48">
+      <c r="O97" s="47">
         <v>0.1</v>
       </c>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38" t="s">
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
+      <c r="C98" s="47"/>
+      <c r="D98" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48" t="s">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>1</v>
       </c>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48">
+      <c r="J98" s="47"/>
+      <c r="K98" s="47">
         <v>0.5</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="47">
         <v>4</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="47">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="47">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38" t="s">
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
+      <c r="C99" s="47"/>
+      <c r="D99" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
+      <c r="J99" s="47"/>
+      <c r="K99" s="47">
         <v>0.5</v>
       </c>
-      <c r="L99" s="48">
+      <c r="L99" s="47">
         <v>3</v>
       </c>
-      <c r="M99" s="40">
+      <c r="M99" s="39">
         <v>1.75</v>
       </c>
-      <c r="N99" s="40">
+      <c r="N99" s="39">
         <v>0.25</v>
       </c>
-      <c r="O99" s="40">
+      <c r="O99" s="39">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
+    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="D100" s="44" t="s">
+      <c r="D100" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="E100" s="44" t="s">
+      <c r="E100" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
+    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="E101" s="54" t="s">
+      <c r="E101" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="54" t="s">
+      <c r="F101" s="61"/>
+      <c r="G101" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
+      <c r="I101" s="53">
         <v>1</v>
       </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
+      <c r="J101" s="56"/>
+      <c r="K101" s="55">
         <v>0.9</v>
       </c>
-      <c r="L101" s="56">
+      <c r="L101" s="55">
         <v>1</v>
       </c>
-      <c r="M101" s="56">
+      <c r="M101" s="55">
         <v>0.95</v>
       </c>
-      <c r="N101" s="56">
+      <c r="N101" s="55">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="55">
         <v>0.1</v>
       </c>
-      <c r="R101" s="38" t="s">
+      <c r="R101" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
+    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
+      <c r="F102" s="47"/>
+      <c r="G102" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I102" s="38">
+      <c r="I102" s="37">
         <v>1450</v>
       </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
+      <c r="J102" s="40"/>
+      <c r="K102" s="39">
+        <v>0</v>
+      </c>
+      <c r="L102" s="39">
         <v>3000</v>
       </c>
-      <c r="M102" s="40">
+      <c r="M102" s="39">
         <v>1450</v>
       </c>
-      <c r="N102" s="40">
+      <c r="N102" s="39">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="40">
+      <c r="O102" s="39">
         <v>50</v>
       </c>
-      <c r="R102" s="38" t="s">
+      <c r="R102" s="37" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="45"/>
+      <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="45"/>
+      <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="45"/>
+      <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="45"/>
+      <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="45"/>
+      <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
+      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10162,7 +10218,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10180,7 +10236,7 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -10218,7 +10274,7 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -10286,7 +10342,7 @@
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
         <v>760</v>
@@ -10315,7 +10371,7 @@
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
         <v>761</v>
@@ -10344,7 +10400,7 @@
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>762</v>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6674,7 +6674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7198,11 +7198,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7721,167 +7721,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="b">
+    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>756</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="b">
+      <c r="B23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
+        <v>100</v>
+      </c>
+      <c r="M25" s="39">
+        <v>15</v>
+      </c>
+      <c r="N25" s="39">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37" t="s">
+      <c r="R25" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="39">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
-        <v>100</v>
-      </c>
-      <c r="M26" s="39">
-        <v>15</v>
-      </c>
-      <c r="N26" s="39">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="39">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="37" t="s">
+    </row>
+    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="55">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="K28" s="55">
-        <v>0</v>
-      </c>
-      <c r="L28" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="55">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7894,10 +7893,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7912,10 +7911,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7930,123 +7929,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="51">
+        <v>40</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="51">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>44</v>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="49">
-        <v>0</v>
-      </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="51">
-        <v>40</v>
-      </c>
-      <c r="M36" s="51">
-        <v>0</v>
-      </c>
-      <c r="N36" s="51">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="37" t="s">
-        <v>757</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8054,11 +8062,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="41" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -8082,14 +8090,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8109,18 +8117,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8136,18 +8144,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8163,18 +8171,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8190,18 +8198,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8210,123 +8218,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="b">
+      <c r="B43" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="39">
+        <v>80</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="39">
         <v>1</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37" t="s">
+      <c r="R45" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="39">
-        <v>80</v>
-      </c>
-      <c r="M46" s="39">
-        <v>0</v>
-      </c>
-      <c r="N46" s="39">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="39">
-        <v>1</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8342,17 +8344,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8363,19 +8365,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8384,17 +8383,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8402,141 +8404,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="39">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="39">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="39">
-        <v>1</v>
-      </c>
-      <c r="R56" s="37" t="s">
+      <c r="R55" s="37" t="s">
         <v>757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8544,16 +8543,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8562,10 +8564,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8583,40 +8585,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8625,17 +8624,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8643,20 +8645,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8664,120 +8666,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="37">
+      <c r="I66" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="39">
-        <v>2</v>
-      </c>
-      <c r="L67" s="39">
+      <c r="J66" s="40"/>
+      <c r="K66" s="39">
+        <v>2</v>
+      </c>
+      <c r="L66" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="39">
+      <c r="M66" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="39">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="39">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="39">
+      <c r="O66" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="37" t="s">
+      <c r="R66" s="37" t="s">
         <v>757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8785,16 +8784,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8803,10 +8805,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8824,17 +8826,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8845,19 +8847,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8866,17 +8865,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8884,20 +8886,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8905,79 +8907,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="37">
+        <v>0</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="39">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="39">
+        <v>14</v>
+      </c>
+      <c r="M77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="37" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8985,10 +9007,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="37" t="s">
@@ -9002,17 +9024,17 @@
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="39">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="39">
         <v>0</v>
       </c>
       <c r="N78" s="39">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="39">
         <v>1</v>
@@ -9021,45 +9043,22 @@
         <v>757</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="37">
-        <v>0</v>
-      </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="39">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="39">
-        <v>30</v>
-      </c>
-      <c r="M79" s="39">
-        <v>0</v>
-      </c>
-      <c r="N79" s="39">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="39">
-        <v>1</v>
-      </c>
-      <c r="R79" s="37" t="s">
-        <v>757</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9067,16 +9066,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9085,10 +9087,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -9106,40 +9108,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9148,17 +9147,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9166,20 +9168,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9187,58 +9189,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="47"/>
+      <c r="G88" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="37">
+        <v>0</v>
+      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="39">
+        <v>2</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0</v>
+      </c>
+      <c r="N88" s="39">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>66</v>
+      <c r="R88" s="37" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9246,10 +9268,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="37" t="s">
@@ -9266,14 +9288,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="39">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="39">
         <v>0</v>
       </c>
       <c r="N89" s="39">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="39">
         <v>1</v>
@@ -9282,111 +9304,113 @@
         <v>757</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="37" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="37" t="s">
+      <c r="C92" s="47"/>
+      <c r="D92" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="37">
-        <v>0</v>
-      </c>
-      <c r="J90" s="40"/>
-      <c r="K90" s="39">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="39">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="39">
-        <v>0</v>
-      </c>
-      <c r="N90" s="39">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="39">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>1</v>
       </c>
-      <c r="R90" s="37" t="s">
+      <c r="J92" s="47"/>
+      <c r="K92" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="37">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="47" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47" t="s">
@@ -9398,7 +9422,7 @@
       </c>
       <c r="J93" s="47"/>
       <c r="K93" s="47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="47">
         <v>4.5</v>
@@ -9406,8 +9430,7 @@
       <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="37">
-        <f>1.5/6</f>
+      <c r="N93" s="47">
         <v>0.25</v>
       </c>
       <c r="O93" s="47">
@@ -9426,10 +9449,10 @@
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="47" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47" t="s">
@@ -9441,110 +9464,111 @@
       </c>
       <c r="J94" s="47"/>
       <c r="K94" s="47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="47">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="47">
+      <c r="N94" s="39">
         <v>0.25</v>
       </c>
-      <c r="O94" s="47">
+      <c r="O94" s="39">
         <v>0.1</v>
       </c>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
       <c r="R94" s="37" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47">
+      <c r="J96" s="47"/>
+      <c r="K96" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="47">
-        <v>3</v>
-      </c>
-      <c r="M95" s="39">
+      <c r="L96" s="47">
+        <v>4</v>
+      </c>
+      <c r="M96" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="39">
+      <c r="N96" s="37">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="39">
+      <c r="O96" s="47">
         <v>0.1</v>
       </c>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="37" t="s">
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="47"/>
       <c r="G97" s="47" t="s">
@@ -9564,8 +9588,7 @@
       <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="37">
-        <f>1.5/6</f>
+      <c r="N97" s="47">
         <v>0.25</v>
       </c>
       <c r="O97" s="47">
@@ -9584,10 +9607,10 @@
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47" t="s">
@@ -9602,186 +9625,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="39">
         <v>0.25</v>
       </c>
-      <c r="O98" s="47">
+      <c r="O98" s="39">
         <v>0.1</v>
       </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
       <c r="R98" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47" t="s">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="53">
+        <v>1</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="55">
+        <v>1</v>
+      </c>
+      <c r="M100" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="55">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47" t="s">
+      <c r="D101" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="47"/>
+      <c r="G101" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47">
-        <v>1</v>
-      </c>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="47">
-        <v>3</v>
-      </c>
-      <c r="M99" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="37" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="53" t="s">
+      <c r="H101" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="53">
-        <v>1</v>
-      </c>
-      <c r="J101" s="56"/>
-      <c r="K101" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="55">
-        <v>1</v>
-      </c>
-      <c r="M101" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="55">
+      <c r="I101" s="37">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="40"/>
+      <c r="K101" s="39">
+        <v>0</v>
+      </c>
+      <c r="L101" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="39">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="39">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="55">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="39">
+        <v>50</v>
       </c>
       <c r="R101" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="47"/>
-      <c r="G102" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="37">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="40"/>
-      <c r="K102" s="39">
-        <v>0</v>
-      </c>
-      <c r="L102" s="39">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="39">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="39">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="39">
-        <v>50</v>
-      </c>
-      <c r="R102" s="37" t="s">
-        <v>757</v>
-      </c>
+    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9821,7 +9806,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10173,12 +10157,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6674,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6912,7 +6912,7 @@
         <v>752</v>
       </c>
       <c r="B22" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>780</v>
@@ -6924,7 +6924,7 @@
         <v>753</v>
       </c>
       <c r="B23" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
@@ -7200,7 +7200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>

--- a/projects/SEB_Morris_2013.xlsx
+++ b/projects/SEB_Morris_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2316,48 +2316,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
@@ -2383,6 +2344,45 @@
   </si>
   <si>
     <t>integer giving the number of repetitions of the design</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6674,21 +6674,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6697,7 +6697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6728,18 +6728,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6886,11 +6886,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>752</v>
       </c>
@@ -6915,11 +6915,11 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>753</v>
       </c>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
         <v>754</v>
       </c>
@@ -6939,11 +6939,11 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
         <v>0</v>
       </c>
@@ -6951,11 +6951,11 @@
         <v>755</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>535</v>
       </c>
@@ -6963,11 +6963,11 @@
         <v>536</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
         <v>537</v>
       </c>
@@ -6975,39 +6975,39 @@
         <v>2</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B28" s="28">
         <v>1E+18</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="30" customFormat="1">
       <c r="C30" s="29"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="30" customFormat="1" ht="28">
       <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="2" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="28">
       <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="2" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>31</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="30" customFormat="1">
       <c r="A36" s="1"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1"/>
@@ -7106,7 +7106,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="56">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="2" customFormat="1">
       <c r="A38" s="30" t="s">
         <v>632</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="30"/>
       <c r="C39" s="30"/>
       <c r="E39" s="30"/>
@@ -7162,7 +7162,7 @@
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="30" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="25"/>
       <c r="C40" s="1"/>
@@ -7187,7 +7187,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7200,37 +7199,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7266,7 +7265,7 @@
       <c r="Y1" s="63"/>
       <c r="Z1" s="63"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="34" customFormat="1">
       <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
@@ -7379,7 +7378,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7398,7 +7397,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7417,7 +7416,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7435,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7455,7 +7454,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7474,7 +7473,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7493,7 +7492,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7512,7 +7511,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7531,7 +7530,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7550,7 +7549,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="34" customFormat="1">
       <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
@@ -7569,7 +7568,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7588,7 +7587,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7607,7 +7606,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7626,7 +7625,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7645,7 +7644,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7664,7 +7663,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7683,7 +7682,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7702,7 +7701,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7721,7 +7720,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="42" customFormat="1">
       <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7760,7 +7759,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="53" customFormat="1">
       <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7943,7 +7942,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="43" customFormat="1">
       <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7990,7 +7989,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15">
       <c r="B35" s="49" t="s">
         <v>21</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8056,7 +8055,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="36"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8083,7 +8082,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8110,7 +8109,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8137,7 +8136,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8164,7 +8163,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="36"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8191,7 +8190,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8218,7 +8217,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="43" customFormat="1">
       <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B45" s="37" t="s">
         <v>22</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="43" t="b">
         <v>1</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B55" s="37" t="s">
         <v>22</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8538,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="43" t="b">
         <v>1</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B66" s="37" t="s">
         <v>22</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="43" t="b">
         <v>1</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B77" s="37" t="s">
         <v>22</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="43" customFormat="1">
       <c r="A87" s="43" t="b">
         <v>1</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B88" s="37" t="s">
         <v>22</v>
       </c>
@@ -9263,7 +9262,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9327,7 +9326,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="46" t="b">
         <v>1</v>
       </c>
@@ -9357,7 +9356,7 @@
       <c r="Q91" s="43"/>
       <c r="R91" s="43"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="37"/>
       <c r="B92" s="47" t="s">
         <v>22</v>
@@ -9400,7 +9399,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
@@ -9442,7 +9441,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="47"/>
       <c r="B94" s="47" t="s">
         <v>22</v>
@@ -9485,7 +9484,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="46" t="b">
         <v>1</v>
       </c>
@@ -9515,7 +9514,7 @@
       <c r="Q95" s="43"/>
       <c r="R95" s="43"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="37"/>
       <c r="B96" s="47" t="s">
         <v>22</v>
@@ -9558,7 +9557,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
@@ -9600,7 +9599,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="47"/>
       <c r="B98" s="47" t="s">
         <v>22</v>
@@ -9642,7 +9641,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="43" t="b">
         <v>1</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="53" customFormat="1">
       <c r="B100" s="53" t="s">
         <v>21</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
@@ -9741,7 +9740,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="34" customFormat="1">
       <c r="A102" s="34" t="b">
         <v>1</v>
       </c>
@@ -9749,10 +9748,10 @@
         <v>756</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>231</v>
@@ -9760,400 +9759,400 @@
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10163,7 +10162,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10178,25 +10176,25 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="57"/>
       <c r="C1" s="5"/>
@@ -10212,7 +10210,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10289,7 +10287,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10318,14 +10316,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10347,14 +10345,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10376,14 +10374,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10404,14 +10402,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10432,14 +10430,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10460,14 +10458,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10488,14 +10486,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10516,14 +10514,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10544,14 +10542,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10567,14 +10565,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10590,14 +10588,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10613,13 +10611,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10634,180 +10632,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10824,19 +10821,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10855,7 +10852,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10876,7 +10873,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10899,7 +10896,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10922,7 +10919,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10945,7 +10942,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10968,7 +10965,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10991,7 +10988,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11014,7 +11011,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11037,7 +11034,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11060,7 +11057,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11079,7 +11076,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11100,7 +11097,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11123,7 +11120,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11146,7 +11143,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11169,7 +11166,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11192,7 +11189,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11215,7 +11212,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11238,7 +11235,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11261,7 +11258,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11284,7 +11281,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11303,7 +11300,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11326,7 +11323,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11349,7 +11346,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11372,7 +11369,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11395,7 +11392,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11418,7 +11415,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11441,7 +11438,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11464,7 +11461,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11487,7 +11484,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11510,7 +11507,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11529,7 +11526,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11550,7 +11547,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11573,7 +11570,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11596,7 +11593,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11619,7 +11616,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11642,7 +11639,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11665,7 +11662,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11688,7 +11685,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11711,7 +11708,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11734,7 +11731,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11753,7 +11750,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11774,7 +11771,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11797,7 +11794,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11820,7 +11817,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11843,7 +11840,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11866,7 +11863,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11889,7 +11886,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11912,7 +11909,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11935,7 +11932,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11958,7 +11955,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11977,7 +11974,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11998,7 +11995,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12021,7 +12018,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12044,7 +12041,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12067,7 +12064,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12090,7 +12087,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12113,7 +12110,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12136,7 +12133,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12159,7 +12156,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12182,7 +12179,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12201,7 +12198,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12222,7 +12219,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12247,7 +12244,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12270,7 +12267,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12293,7 +12290,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12316,7 +12313,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12339,7 +12336,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12362,7 +12359,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12385,7 +12382,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12405,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12428,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12450,7 +12447,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12471,7 +12468,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12494,7 +12491,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12519,7 +12516,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12542,7 +12539,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12565,7 +12562,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12588,7 +12585,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12611,7 +12608,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12634,7 +12631,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12657,7 +12654,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12680,7 +12677,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12703,7 +12700,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12726,7 +12723,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12749,7 +12746,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12768,7 +12765,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12791,7 +12788,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12814,7 +12811,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12837,7 +12834,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12860,7 +12857,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12883,7 +12880,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12906,7 +12903,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12929,7 +12926,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12952,7 +12949,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12975,7 +12972,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12998,7 +12995,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13017,7 +13014,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13042,7 +13039,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13061,7 +13058,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13079,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13126,7 +13123,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13149,7 +13146,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13174,7 +13171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13197,7 +13194,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13218,7 +13215,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13237,7 +13234,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13262,7 +13259,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13285,7 +13282,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13308,7 +13305,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13331,7 +13328,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13354,7 +13351,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13377,7 +13374,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13400,7 +13397,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13419,7 +13416,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13442,7 +13439,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13462,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13485,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13507,7 +13504,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13530,7 +13527,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13550,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13573,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13596,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13619,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13642,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13664,7 +13661,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13689,7 +13686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13712,7 +13709,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13735,7 +13732,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13758,7 +13755,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13778,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13804,7 +13801,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13827,7 +13824,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13847,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13870,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13892,7 +13889,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13917,7 +13914,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13938,7 +13935,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13961,7 +13958,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13984,7 +13981,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14007,7 +14004,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14030,7 +14027,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14053,7 +14050,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14076,7 +14073,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14099,7 +14096,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14122,7 +14119,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14145,7 +14142,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14168,7 +14165,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14191,7 +14188,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14214,7 +14211,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14233,7 +14230,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14256,7 +14253,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14275,7 +14272,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14298,7 +14295,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14318,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14340,7 +14337,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14365,7 +14362,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14388,7 +14385,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14411,7 +14408,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14434,7 +14431,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14457,7 +14454,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14480,7 +14477,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14503,7 +14500,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14523,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14546,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14569,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14591,7 +14588,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14616,7 +14613,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14639,7 +14636,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14662,7 +14659,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14685,7 +14682,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14708,7 +14705,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14731,7 +14728,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14754,7 +14751,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14777,7 +14774,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14800,7 +14797,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14823,7 +14820,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14842,7 +14839,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14865,7 +14862,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14888,7 +14885,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14911,7 +14908,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14934,7 +14931,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14953,7 +14950,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14976,7 +14973,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14999,7 +14996,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15019,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15042,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15064,7 +15061,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15085,7 +15082,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15108,7 +15105,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15127,7 +15124,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15150,7 +15147,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15175,7 +15172,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15193,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15221,7 +15218,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15246,7 +15243,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15265,7 +15262,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15290,7 +15287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15313,7 +15310,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15336,7 +15333,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15359,7 +15356,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15382,7 +15379,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15405,7 +15402,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15428,7 +15425,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15451,7 +15448,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15474,7 +15471,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15493,7 +15490,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15518,7 +15515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15541,7 +15538,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15564,7 +15561,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15587,7 +15584,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15607,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15633,7 +15630,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15656,7 +15653,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15679,7 +15676,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15702,7 +15699,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15721,7 +15718,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15742,7 +15739,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15765,7 +15762,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15788,7 +15785,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15811,7 +15808,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15834,7 +15831,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15857,7 +15854,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15880,7 +15877,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15903,7 +15900,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15926,7 +15923,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15949,7 +15946,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15972,7 +15969,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15995,7 +15992,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16018,7 +16015,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16041,7 +16038,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16064,7 +16061,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16087,7 +16084,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16106,7 +16103,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16127,7 +16124,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16150,7 +16147,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16173,7 +16170,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16196,7 +16193,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16219,7 +16216,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16242,7 +16239,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16265,7 +16262,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16288,7 +16285,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16311,7 +16308,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16334,7 +16331,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16357,7 +16354,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16380,7 +16377,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16403,7 +16400,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16426,7 +16423,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16449,7 +16446,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16472,7 +16469,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16491,7 +16488,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16516,7 +16513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16539,7 +16536,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16562,7 +16559,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16585,7 +16582,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16608,7 +16605,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16627,7 +16624,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16652,7 +16649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16672,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16694,7 +16691,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16713,7 +16710,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16732,7 +16729,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16753,7 +16750,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16776,7 +16773,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16799,7 +16796,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16822,7 +16819,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16845,7 +16842,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16868,7 +16865,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16891,7 +16888,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16911,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16937,7 +16934,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16960,7 +16957,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16983,7 +16980,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17002,7 +16999,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17025,7 +17022,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17044,7 +17041,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17069,7 +17066,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17092,7 +17089,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17115,7 +17112,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17138,7 +17135,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17161,7 +17158,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17184,7 +17181,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17207,7 +17204,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17230,7 +17227,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17253,7 +17250,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17276,7 +17273,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17299,7 +17296,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17318,7 +17315,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17341,7 +17338,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17360,7 +17357,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17381,7 +17378,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17400,7 +17397,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17421,7 +17418,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17440,7 +17437,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17461,7 +17458,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17480,7 +17477,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17503,7 +17500,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17522,7 +17519,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17547,7 +17544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17570,7 +17567,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17593,7 +17590,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17616,7 +17613,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17639,7 +17636,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17662,7 +17659,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17685,7 +17682,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17708,7 +17705,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17731,7 +17728,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17750,7 +17747,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17773,7 +17770,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17796,7 +17793,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17819,7 +17816,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17842,7 +17839,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17861,7 +17858,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17884,7 +17881,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17907,7 +17904,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17932,7 +17929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17951,7 +17948,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17976,7 +17973,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17999,7 +17996,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18018,7 +18015,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18039,7 +18036,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18060,7 +18057,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18083,7 +18080,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18102,7 +18099,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18121,7 +18118,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18146,7 +18143,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18171,7 +18168,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18185,7 +18182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18208,7 +18205,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18228,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18248,7 +18245,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18268,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18285,7 +18282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18308,7 +18305,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18331,7 +18328,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18345,7 +18342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18368,7 +18365,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18391,7 +18388,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18411,7 +18408,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18431,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18448,7 +18445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18474,7 +18471,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18503,7 +18500,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18542,7 +18539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18556,7 +18553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18576,7 +18573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18590,7 +18587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18610,7 +18607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18630,7 +18627,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18650,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18670,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18690,7 +18687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18710,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18730,7 +18727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18750,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18770,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18784,7 +18781,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18804,7 +18801,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18824,7 +18821,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18840,7 +18837,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18866,7 +18863,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18907,7 +18904,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18921,7 +18918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18941,7 +18938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18955,7 +18952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18977,7 +18974,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18994,17 +18990,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19015,7 +19011,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -19029,7 +19025,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -19043,7 +19039,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19057,7 +19053,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19071,7 +19067,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19085,7 +19081,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19099,7 +19095,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19113,7 +19109,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19127,7 +19123,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19141,7 +19137,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19155,7 +19151,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19166,8 +19162,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19193,7 +19189,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19234,7 +19230,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19275,7 +19271,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19307,7 +19303,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19339,7 +19335,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19368,7 +19364,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19400,7 +19396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19420,7 +19416,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19443,7 +19439,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19454,7 +19450,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19462,7 +19458,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19475,7 +19471,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
